--- a/medicine/Pharmacie/1919_en_santé_et_médecine/1919_en_santé_et_médecine.xlsx
+++ b/medicine/Pharmacie/1919_en_santé_et_médecine/1919_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1919_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1919_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1919 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1919_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1919_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,23 +523,25 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1er février : levée de l'obligation de port du masque à San Francisco lors de la pandémie de grippe espagnole sur recommandation du Conseil sanitaire, en réponse à une pétition de la Ligue anti-masque au Conseil des superviseurs[1].
-29 janvier : ratification du 18e amendement de la Constitution des États-Unis interdisant la consommation de boissons alcoolisées[2], complété le 28 octobre par le Volstead Act[3], et qui entrera en vigueur le 16 janvier 1920[4].
-8 février : avis de l'École de l'aviation navale du Brésil « approuvant l'idée d'avoir des médecins dans cette unité[5] ».
-20 février : fondation de la Société britannique de psychanalyse (British Psychoanalytical Society) par Ernest Jones et quelques membres opposés aux idées jungiennes de la Société psychanalytique de Londres (London Psychoanalytical Society[6]).
-23 avril : l'Institut métapsychique international, récemment fondé par Jean Meyer et les médecins Rocco Santoliquido et Gustave Geley, est reconnu d'utilité publique[7].
-5 juin : le Bulletin de l'armée brésilienne publie « les premières normes concernant l'aptitude physique à l'aviation  militaire[5] ».
-1er octobre : ouverture de l'université de médecine de Cluj, en Roumanie[8].
-25 octobre : une loi française étend aux maladies professionnelles les dispositions adoptées en 1898 pour les accidents du travail[9].
-28 octobre : aux États-Unis, le Volstead Act élargit aux restaurants et bars l'interdiction de la production, la distribution et la vente de boissons alcoolisées[3].
-22 novembre : un premier incendie ravage l'université de Montréal[10].
-23 novembre : inauguration de la faculté de médecine de l'université de Strasbourg[11].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1er février : levée de l'obligation de port du masque à San Francisco lors de la pandémie de grippe espagnole sur recommandation du Conseil sanitaire, en réponse à une pétition de la Ligue anti-masque au Conseil des superviseurs.
+29 janvier : ratification du 18e amendement de la Constitution des États-Unis interdisant la consommation de boissons alcoolisées, complété le 28 octobre par le Volstead Act, et qui entrera en vigueur le 16 janvier 1920.
+8 février : avis de l'École de l'aviation navale du Brésil « approuvant l'idée d'avoir des médecins dans cette unité ».
+20 février : fondation de la Société britannique de psychanalyse (British Psychoanalytical Society) par Ernest Jones et quelques membres opposés aux idées jungiennes de la Société psychanalytique de Londres (London Psychoanalytical Society).
+23 avril : l'Institut métapsychique international, récemment fondé par Jean Meyer et les médecins Rocco Santoliquido et Gustave Geley, est reconnu d'utilité publique.
+5 juin : le Bulletin de l'armée brésilienne publie « les premières normes concernant l'aptitude physique à l'aviation  militaire ».
+1er octobre : ouverture de l'université de médecine de Cluj, en Roumanie.
+25 octobre : une loi française étend aux maladies professionnelles les dispositions adoptées en 1898 pour les accidents du travail.
+28 octobre : aux États-Unis, le Volstead Act élargit aux restaurants et bars l'interdiction de la production, la distribution et la vente de boissons alcoolisées.
+22 novembre : un premier incendie ravage l'université de Montréal.
+23 novembre : inauguration de la faculté de médecine de l'université de Strasbourg.
 1919 :
-Des jésuites et des étudiants en médecine fondent la Conférence Augustin-Fabre, aujourd'hui Centre Laennec Marseille[12].
-Congrès médical international de Rome sur l'aptitude des aviateurs[5].
-1918-1919 : pandémie de grippe espagnole[13].</t>
+Des jésuites et des étudiants en médecine fondent la Conférence Augustin-Fabre, aujourd'hui Centre Laennec Marseille.
+Congrès médical international de Rome sur l'aptitude des aviateurs.
+1918-1919 : pandémie de grippe espagnole.</t>
         </is>
       </c>
     </row>
@@ -537,7 +551,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1919_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1919_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -555,10 +569,12 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Réédition de La Sélection humaine et parution de L'Homme stupide, de Charles Richet, ouvrages dont le second reprend les idées racialistes et eugénistes développées dès 1913 dans le premier[14].
-Martin Weiser, Medizinische Kinematographie[15], « vaste inventaire des usages médicaux de la cinématographie[16] ».</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Réédition de La Sélection humaine et parution de L'Homme stupide, de Charles Richet, ouvrages dont le second reprend les idées racialistes et eugénistes développées dès 1913 dans le premier.
+Martin Weiser, Medizinische Kinematographie, « vaste inventaire des usages médicaux de la cinématographie ».</t>
         </is>
       </c>
     </row>
@@ -568,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1919_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1919_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -586,7 +602,9 @@
           <t>Prix</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Prix Nobel de médecine : Jules Bordet (1870-1961) pour ses travaux sur le bacille de la coqueluche.</t>
         </is>
@@ -598,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1919_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1919_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -616,7 +634,9 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>1er janvier : Marek Edelman (mort en 2009), cardiologue et homme politique polonais.
 13 janvier : Horacio Etchegoyen, psychologue, psychiatre et psychanalyste argentin.
@@ -631,7 +651,7 @@
 2 avril : Roger Mucchielli (mort en 1981), philosophe, psychologue et neuropsychiatre français.
 28 avril : Philippe Demers (mort en 1999), vétérinaire et homme politique québécois.
 8 mai :
-Stanislav Andreski (mort en 2007), sociologue anglo-polonais, auteur d'un essai sur l'histoire de la syphilis et du sida[17].
+Stanislav Andreski (mort en 2007), sociologue anglo-polonais, auteur d'un essai sur l'histoire de la syphilis et du sida.
 Leon Festinger (mort en 1989), psychosociologue américain, auteur de la théorie de la dissonance cognitive.
 11 mai : Éliane Amado Levy-Valensi (morte en 2006), psychologue et psychanalyste française.
 23 mai : Nicolas Abraham (mort en 1975), psychanalyste français.
@@ -667,11 +687,11 @@
 Gérard Desrosiers, médecin de campagne québécois.
 Martha Harris, psychanalyste anglaise.
 Germaine Huot, orthophoniste québécoise.
-André Roussel (mort en 2011), hygiéniste français, spécialiste de la santé publique[18].
+André Roussel (mort en 2011), hygiéniste français, spécialiste de la santé publique.
 Victor Smirnoff (mort en 1995), psychanalyste et neuropsychiatre français d'origine russe.
 Jean Ursin, médecin français, officier du corps de santé des armées, historien de la franc-maçonnerie.
 Li Zhisui (mort en 1995), médecin personnel de Mao Tsé-toung.
-Walter Züblin (mort en 1990), pédopsychiatre suisse[19].</t>
+Walter Züblin (mort en 1990), pédopsychiatre suisse.</t>
         </is>
       </c>
     </row>
@@ -681,7 +701,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1919_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1919_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -699,7 +719,9 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>2 février : Hippolyte Bernheim (né en 1840), neurologue et psychothérapeute français.
 7 février : Raphaël Blanchard (né en 1857), médecin et naturaliste français.
@@ -725,7 +747,7 @@
 27 juillet : Charles Abbott (né en 1843), médecin, naturaliste et archéologue américain.
 8 août : Ernst Haeckel (né en 1834), médecin, biologiste et philosophe allemand.
 11 août : Franz Nissl (né en 1860), neurologue, neuropathologiste et psychiatre allemand..
-20 septembre : Émile Galtier-Boissière (né en 1857), pédiatre français [20].
+20 septembre : Émile Galtier-Boissière (né en 1857), pédiatre français .
 11 décembre : Charles-Émile Troisier (né en 1844), médecin français.
 29 décembre : William Osler (né en 1849), médecin canadien.
 1919 :
